--- a/data/trans_orig/P33b_R1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R1-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{643B8ED4-1B46-4F92-8D1A-F4FBF096E13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FDC855C-4329-4B9C-9444-783B2EB735A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6CA561CE-9B2F-4770-A3F8-22BFA9A3240F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3FF827B1-98BA-4771-B920-84110EC8BA14}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>10,4%</t>
   </si>
   <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
   </si>
   <si>
     <t>19,34%</t>
   </si>
   <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
   </si>
   <si>
     <t>15,45%</t>
   </si>
   <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>89,6%</t>
   </si>
   <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
   </si>
   <si>
     <t>80,66%</t>
   </si>
   <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
   </si>
   <si>
     <t>84,55%</t>
   </si>
   <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,10 +137,10 @@
     <t>15,74%</t>
   </si>
   <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
   </si>
   <si>
     <t>25,41%</t>
@@ -149,31 +149,31 @@
     <t>22,61%</t>
   </si>
   <si>
-    <t>28,42%</t>
+    <t>28,52%</t>
   </si>
   <si>
     <t>20,76%</t>
   </si>
   <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
   </si>
   <si>
     <t>84,26%</t>
   </si>
   <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
   </si>
   <si>
     <t>74,59%</t>
   </si>
   <si>
-    <t>71,58%</t>
+    <t>71,48%</t>
   </si>
   <si>
     <t>77,39%</t>
@@ -182,10 +182,10 @@
     <t>79,24%</t>
   </si>
   <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -194,223 +194,223 @@
     <t>11,33%</t>
   </si>
   <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
   </si>
   <si>
     <t>20,78%</t>
   </si>
   <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>14,3%</t>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
   </si>
   <si>
     <t>17,73%</t>
   </si>
   <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
   </si>
   <si>
     <t>82,27%</t>
   </si>
   <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
     <t>13,1%</t>
   </si>
   <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
   </si>
   <si>
     <t>20,62%</t>
   </si>
   <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
   </si>
   <si>
     <t>86,9%</t>
   </si>
   <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
   </si>
   <si>
     <t>79,38%</t>
   </si>
   <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
   </si>
   <si>
     <t>82,92%</t>
   </si>
   <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E57058-C709-4A62-A4FF-B208AD005E1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B59526-196D-485B-AC34-DDFE9D85FE86}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33b_R1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R1-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FDC855C-4329-4B9C-9444-783B2EB735A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AB90EF0-E10B-4609-8E0A-5DF4AB00D395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3FF827B1-98BA-4771-B920-84110EC8BA14}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{32BCA0EA-D74B-40A1-8643-F328880DE73F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>15,74%</t>
@@ -188,7 +188,7 @@
     <t>81,29%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>11,33%</t>
@@ -245,7 +245,7 @@
     <t>85,41%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>11,18%</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B59526-196D-485B-AC34-DDFE9D85FE86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B9DC20-AC1E-4D7B-86DB-F7ED3FBEBF00}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33b_R1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R1-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AB90EF0-E10B-4609-8E0A-5DF4AB00D395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F941C9C9-6118-4451-82AB-826BE9E20483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{32BCA0EA-D74B-40A1-8643-F328880DE73F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6A181E1D-BA91-420F-BA0C-F5D392791D91}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>10,4%</t>
   </si>
   <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
   </si>
   <si>
     <t>19,34%</t>
   </si>
   <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
   </si>
   <si>
     <t>15,45%</t>
   </si>
   <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>89,6%</t>
   </si>
   <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
   </si>
   <si>
     <t>80,66%</t>
   </si>
   <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
   </si>
   <si>
     <t>84,55%</t>
   </si>
   <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,10 +137,10 @@
     <t>15,74%</t>
   </si>
   <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
   </si>
   <si>
     <t>25,41%</t>
@@ -149,100 +149,100 @@
     <t>22,61%</t>
   </si>
   <si>
-    <t>28,52%</t>
+    <t>28,42%</t>
   </si>
   <si>
     <t>20,76%</t>
   </si>
   <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
     <t>18,71%</t>
   </si>
   <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
   </si>
   <si>
     <t>81,29%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -251,55 +251,55 @@
     <t>11,18%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
   </si>
   <si>
     <t>14,64%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
   </si>
   <si>
     <t>13,07%</t>
   </si>
   <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
   </si>
   <si>
     <t>88,82%</t>
   </si>
   <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
   </si>
   <si>
     <t>85,36%</t>
   </si>
   <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
   </si>
   <si>
     <t>86,93%</t>
   </si>
   <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,109 @@
     <t>15,24%</t>
   </si>
   <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
   </si>
   <si>
     <t>22,69%</t>
   </si>
   <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
   </si>
   <si>
     <t>19,29%</t>
   </si>
   <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
   </si>
   <si>
     <t>84,76%</t>
   </si>
   <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
   </si>
   <si>
     <t>77,31%</t>
   </si>
   <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
   </si>
   <si>
     <t>80,71%</t>
   </si>
   <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
   </si>
   <si>
     <t>13,1%</t>
   </si>
   <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
   </si>
   <si>
     <t>20,62%</t>
   </si>
   <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
   </si>
   <si>
     <t>86,9%</t>
   </si>
   <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
   </si>
   <si>
     <t>79,38%</t>
   </si>
   <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
   </si>
   <si>
     <t>82,92%</t>
   </si>
   <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B9DC20-AC1E-4D7B-86DB-F7ED3FBEBF00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BE5796-9537-4112-80A8-4DDA5D4E5FFD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33b_R1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R1-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F941C9C9-6118-4451-82AB-826BE9E20483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA50661E-F5AC-4C36-B696-E70DB1EA9802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6A181E1D-BA91-420F-BA0C-F5D392791D91}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7FBA9BF2-D6CC-4951-839D-1FCF13857E6E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Población que tiene dificultad para dormirse por la noche en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -65,352 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
   </si>
   <si>
     <t>19,34%</t>
   </si>
   <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
   </si>
   <si>
     <t>80,66%</t>
   </si>
   <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BE5796-9537-4112-80A8-4DDA5D4E5FFD}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E36320-3F52-4416-B247-3EB765ACE2F9}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -943,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="D4" s="7">
-        <v>10496</v>
+        <v>91794</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>53</v>
+        <v>319</v>
       </c>
       <c r="I4" s="7">
-        <v>25285</v>
+        <v>161385</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>66</v>
+        <v>433</v>
       </c>
       <c r="N4" s="7">
-        <v>35780</v>
+        <v>253179</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -994,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>104</v>
+        <v>615</v>
       </c>
       <c r="D5" s="7">
-        <v>90409</v>
+        <v>542618</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1009,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>190</v>
+        <v>918</v>
       </c>
       <c r="I5" s="7">
-        <v>105448</v>
+        <v>513482</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1024,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>294</v>
+        <v>1533</v>
       </c>
       <c r="N5" s="7">
-        <v>195858</v>
+        <v>1056100</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1045,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>117</v>
+        <v>729</v>
       </c>
       <c r="D6" s="7">
-        <v>100905</v>
+        <v>634412</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1060,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1237</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>674867</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1075,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1966</v>
       </c>
       <c r="N6" s="7">
-        <v>231638</v>
+        <v>1309279</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1098,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="D7" s="7">
-        <v>86554</v>
+        <v>109568</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1113,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>266</v>
+        <v>349</v>
       </c>
       <c r="I7" s="7">
-        <v>150459</v>
+        <v>197229</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1128,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>367</v>
+        <v>483</v>
       </c>
       <c r="N7" s="7">
-        <v>237013</v>
+        <v>306798</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1149,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>511</v>
+        <v>830</v>
       </c>
       <c r="D8" s="7">
-        <v>463269</v>
+        <v>1083296</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1164,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>728</v>
+        <v>1167</v>
       </c>
       <c r="I8" s="7">
-        <v>441552</v>
+        <v>760877</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1179,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1239</v>
+        <v>1997</v>
       </c>
       <c r="N8" s="7">
-        <v>904821</v>
+        <v>1844173</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1200,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1215,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>994</v>
+        <v>1516</v>
       </c>
       <c r="I9" s="7">
-        <v>592011</v>
+        <v>958106</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1606</v>
+        <v>2480</v>
       </c>
       <c r="N9" s="7">
-        <v>1141834</v>
+        <v>2150971</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1253,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="D10" s="7">
-        <v>117764</v>
+        <v>76236</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1268,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>349</v>
+        <v>184</v>
       </c>
       <c r="I10" s="7">
-        <v>220198</v>
+        <v>115523</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1283,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>483</v>
+        <v>265</v>
       </c>
       <c r="N10" s="7">
-        <v>337962</v>
+        <v>191758</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1304,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>830</v>
+        <v>595</v>
       </c>
       <c r="D11" s="7">
-        <v>921484</v>
+        <v>628444</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1319,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>1167</v>
+        <v>863</v>
       </c>
       <c r="I11" s="7">
-        <v>839276</v>
+        <v>817843</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1334,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1997</v>
+        <v>1458</v>
       </c>
       <c r="N11" s="7">
-        <v>1760760</v>
+        <v>1446288</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1355,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1516</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1059474</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2480</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2098722</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1408,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="D13" s="7">
-        <v>81472</v>
+        <v>138645</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1423,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>184</v>
+        <v>388</v>
       </c>
       <c r="I13" s="7">
-        <v>128020</v>
+        <v>231923</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1438,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>265</v>
+        <v>557</v>
       </c>
       <c r="N13" s="7">
-        <v>209492</v>
+        <v>370568</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1459,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>595</v>
+        <v>837</v>
       </c>
       <c r="D14" s="7">
-        <v>647300</v>
+        <v>788186</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1474,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>863</v>
+        <v>1172</v>
       </c>
       <c r="I14" s="7">
-        <v>746351</v>
+        <v>860104</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1489,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1458</v>
+        <v>2009</v>
       </c>
       <c r="N14" s="7">
-        <v>1393650</v>
+        <v>1648290</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1510,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1560</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1092027</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2566</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2018858</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1557,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>169</v>
+        <v>498</v>
       </c>
       <c r="D16" s="7">
-        <v>147155</v>
+        <v>416243</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>1240</v>
+      </c>
+      <c r="I16" s="7">
+        <v>706060</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>388</v>
-      </c>
-      <c r="I16" s="7">
-        <v>260260</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1738</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1122303</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>557</v>
-      </c>
-      <c r="N16" s="7">
-        <v>407415</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>837</v>
+        <v>2877</v>
       </c>
       <c r="D17" s="7">
-        <v>818248</v>
+        <v>3042544</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>4120</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2952306</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>1172</v>
-      </c>
-      <c r="I17" s="7">
-        <v>886798</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>6997</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5994851</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>2009</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1705046</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3375</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3458787</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1560</v>
+        <v>5360</v>
       </c>
       <c r="I18" s="7">
-        <v>1147058</v>
+        <v>3658366</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2566</v>
+        <v>8735</v>
       </c>
       <c r="N18" s="7">
-        <v>2112461</v>
+        <v>7117154</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1711,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>498</v>
-      </c>
-      <c r="D19" s="7">
-        <v>443441</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1240</v>
-      </c>
-      <c r="I19" s="7">
-        <v>784223</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1738</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1227663</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2877</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2940710</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4120</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3019424</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6997</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5960135</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3375</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3384151</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5360</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3803647</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8735</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7187798</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
